--- a/Results/Main_Pregnancy_Complication_Overlap_Secretome.xlsx
+++ b/Results/Main_Pregnancy_Complication_Overlap_Secretome.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marta/Desktop/Universitat/3_ANY/TFG/Pregnancy Complications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marta/Documents/GitHub/FGP_Marta_Ibanez/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F75EFA95-69D1-7A42-8FB4-11C03EED6A37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19430F42-158C-7146-9471-BB0F4518F2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="460" windowWidth="18540" windowHeight="16500" xr2:uid="{67FE80CB-A82F-9A49-909D-A12D3766530B}"/>
+    <workbookView xWindow="15000" yWindow="460" windowWidth="18540" windowHeight="16500" xr2:uid="{67FE80CB-A82F-9A49-909D-A12D3766530B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="127">
   <si>
     <t>Timp3</t>
   </si>
@@ -491,13 +491,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,7 +821,7 @@
   <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1866,6 +1867,9 @@
       </c>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C92" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="F92" s="2" t="s">
         <v>71</v>
       </c>

--- a/Results/Main_Pregnancy_Complication_Overlap_Secretome.xlsx
+++ b/Results/Main_Pregnancy_Complication_Overlap_Secretome.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marta/Documents/GitHub/FGP_Marta_Ibanez/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marta/Desktop/Universitat/3_ANY/TFG/Pregnancy Complications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19430F42-158C-7146-9471-BB0F4518F2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F09F7A-E738-E941-BD86-87F76759995A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="460" windowWidth="18540" windowHeight="16500" xr2:uid="{67FE80CB-A82F-9A49-909D-A12D3766530B}"/>
+    <workbookView xWindow="9360" yWindow="460" windowWidth="18540" windowHeight="16500" xr2:uid="{67FE80CB-A82F-9A49-909D-A12D3766530B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="125">
   <si>
     <t>Timp3</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Nucb2</t>
   </si>
   <si>
-    <t>Tbhs1</t>
-  </si>
-  <si>
     <t>Angpt2</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>Sema3f</t>
   </si>
   <si>
-    <t>Angtp2</t>
-  </si>
-  <si>
     <t>Aiad</t>
   </si>
   <si>
@@ -200,9 +194,6 @@
     <t>Serpine1</t>
   </si>
   <si>
-    <t>Tnrsf11b</t>
-  </si>
-  <si>
     <t>A2m</t>
   </si>
   <si>
@@ -414,6 +405,9 @@
   </si>
   <si>
     <t>Thbs1</t>
+  </si>
+  <si>
+    <t>Tnfrsf11b</t>
   </si>
 </sst>
 </file>
@@ -821,7 +815,7 @@
   <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,10 +837,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -854,19 +848,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -877,16 +871,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -897,16 +891,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -917,16 +911,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -937,16 +931,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -957,16 +951,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -974,16 +968,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -991,16 +985,16 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1008,16 +1002,16 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1025,16 +1019,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1042,50 +1036,50 @@
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1093,16 +1087,16 @@
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1110,84 +1104,84 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1195,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1212,7 +1206,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>1</v>
@@ -1229,24 +1223,24 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1257,10 +1251,10 @@
         <v>17</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1271,10 +1265,10 @@
         <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1285,10 +1279,10 @@
         <v>9</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1299,10 +1293,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1310,10 +1304,10 @@
         <v>16</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1321,10 +1315,10 @@
         <v>17</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1332,10 +1326,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1343,10 +1337,10 @@
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
@@ -1354,32 +1348,32 @@
         <v>10</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
@@ -1387,59 +1381,59 @@
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>0</v>
@@ -1450,7 +1444,7 @@
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
@@ -1461,29 +1455,29 @@
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -1494,7 +1488,7 @@
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>23</v>
@@ -1505,61 +1499,61 @@
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
@@ -1567,52 +1561,52 @@
         <v>2</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>16</v>
@@ -1620,7 +1614,7 @@
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
@@ -1628,7 +1622,7 @@
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>11</v>
@@ -1636,7 +1630,7 @@
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1644,7 +1638,7 @@
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1652,7 +1646,7 @@
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>12</v>
@@ -1660,7 +1654,7 @@
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>13</v>
@@ -1668,7 +1662,7 @@
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>14</v>
@@ -1676,7 +1670,7 @@
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>15</v>
@@ -1684,7 +1678,7 @@
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>18</v>
@@ -1692,7 +1686,7 @@
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>19</v>
@@ -1700,7 +1694,7 @@
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>20</v>
@@ -1708,7 +1702,7 @@
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>7</v>
@@ -1716,7 +1710,7 @@
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>8</v>
@@ -1724,79 +1718,79 @@
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>2</v>
@@ -1804,214 +1798,214 @@
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C89" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C91" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C92" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F93" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F94" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F95" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F96" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F98" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F99" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F100" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F101" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F102" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F103" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F104" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F105" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F106" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F107" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F108" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F109" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F110" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F111" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F112" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F113" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F115" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F116" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F117" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F118" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F119" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F120" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
